--- a/Table/UnitWeaponTable.xlsx
+++ b/Table/UnitWeaponTable.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\ProjectApo\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +89,19 @@
     <t>Path-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,9 +503,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Table/UnitWeaponTable.xlsx
+++ b/Table/UnitWeaponTable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\ProjectApo\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -78,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon/pistal02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WeaponType-int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,13 +86,17 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pistal02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +462,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -506,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -514,13 +509,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Table/UnitWeaponTable.xlsx
+++ b/Table/UnitWeaponTable.xlsx
@@ -16,13 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,6 +86,45 @@
   </si>
   <si>
     <t>pistal02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 스텟은 float형이지만 편의를 위해 int로 표기
+스탯이 100일 경우 실제 스탯은 1,(소수점 2번째 까지 지원함)
+ex1. 150 =&gt; 1.5
+ex2. 31 =&gt; 0.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed-int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +500,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,51 +509,70 @@
     <col min="2" max="2" width="38.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="15" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +587,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,18 +595,18 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -561,33 +618,58 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
